--- a/Codelist Excel Files and Conversion Templates to XML/boreholeType.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/boreholeType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Draft Excel Codelists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD989401-42AA-2B4C-BB32-EF4FA68D6543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C828184-D182-A348-8145-B9A8FCA72E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="4640" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="289">
   <si>
     <t>Description</t>
   </si>
@@ -803,9 +803,6 @@
     <t>DIGGS Borehole Type Codelist Definitions</t>
   </si>
   <si>
-    <t>Codes that define the type of borehole. These codes are used for the value of the boreholeType property of the Borehole object.)</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -897,6 +894,18 @@
   </si>
   <si>
     <t>Borehole is constructed using an auger probe wisted into the ground to collect a soil sample</t>
+  </si>
+  <si>
+    <t>Codes that define the type of borehole. These codes are used for the value of the boreholeType property of the Borehole object.</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Borehole</t>
+  </si>
+  <si>
+    <t>This value is used for a generic borehole where the construction method is not known. It may also be used to identify a borehole type for data storage purposes in cases where certain borehole types may have their data stored differently than most boreholes.</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1055,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1073,6 +1082,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1285,8 +1301,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H17" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H18" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
     <sortCondition ref="C2:C11"/>
   </sortState>
@@ -1307,8 +1323,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D17" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D18" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="B1:B6"/>
   </sortState>
@@ -1605,7 +1621,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1671,7 @@
         <v>253</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1670,10 +1686,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1743,7 @@
         <v>241</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>4</v>
@@ -1752,7 +1768,7 @@
         <v>243</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>4</v>
@@ -1777,7 +1793,7 @@
         <v>244</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
@@ -1801,7 +1817,7 @@
         <v>246</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>4</v>
@@ -1825,7 +1841,7 @@
         <v>236</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>4</v>
@@ -1850,7 +1866,7 @@
         <v>249</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
@@ -1871,10 +1887,10 @@
         <v>234</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
@@ -1898,7 +1914,7 @@
         <v>238</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>4</v>
@@ -1922,7 +1938,7 @@
         <v>251</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>4</v>
@@ -1943,10 +1959,10 @@
         <v>239</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>4</v>
@@ -1964,13 +1980,13 @@
         <v/>
       </c>
       <c r="B12" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>4</v>
@@ -1988,13 +2004,13 @@
         <v/>
       </c>
       <c r="B13" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>4</v>
@@ -2012,13 +2028,13 @@
         <v/>
       </c>
       <c r="B14" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>259</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>4</v>
@@ -2036,13 +2052,13 @@
         <v/>
       </c>
       <c r="B15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>262</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>4</v>
@@ -2060,13 +2076,13 @@
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>4</v>
@@ -2084,13 +2100,13 @@
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>4</v>
@@ -2099,6 +2115,30 @@
         <v>10</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2749,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2116,13 +2156,13 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F17</xm:sqref>
+          <xm:sqref>F2:F18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{CAF9CA5C-86AC-4230-AD43-FF6F32C928E9}">
           <x14:formula1>
             <xm:f>'/Users/dponti/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\dponti\GitHub\diggs-dictionaries\[DIGGSDictionaryClassificationCodeASTMD2487.xlsx]Lists'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E17</xm:sqref>
+          <xm:sqref>E2:E18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2133,11 +2173,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2171,7 +2211,7 @@
         <v>240</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2183,7 +2223,7 @@
         <v>242</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2195,7 +2235,7 @@
         <v>247</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2207,7 +2247,7 @@
         <v>245</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2219,7 +2259,7 @@
         <v>235</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2231,7 +2271,7 @@
         <v>248</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2243,7 +2283,7 @@
         <v>234</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2255,7 +2295,7 @@
         <v>237</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2267,7 +2307,7 @@
         <v>250</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2279,7 +2319,7 @@
         <v>239</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2288,10 +2328,10 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2300,10 +2340,10 @@
         <v/>
       </c>
       <c r="B13" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2312,10 +2352,10 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2324,10 +2364,10 @@
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2336,10 +2376,10 @@
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2348,10 +2388,22 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$1:B$1654,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/boreholeType.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/boreholeType.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C828184-D182-A348-8145-B9A8FCA72E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDC4A3-1CDC-254B-8253-B19692A52195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9060" yWindow="4640" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1055,7 +1055,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1084,11 +1084,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2119,7 +2115,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="str">
+      <c r="A18" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2749,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2177,7 +2173,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,11 +2391,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="str">
+      <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$1:B$1654,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>286</v>
       </c>
       <c r="C18" s="15" t="s">

--- a/Codelist Excel Files and Conversion Templates to XML/boreholeType.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/boreholeType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDC4A3-1CDC-254B-8253-B19692A52195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A845B-2CD8-8F4D-B1AD-01C76D3E47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="4640" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="4640" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="289">
   <si>
     <t>Description</t>
   </si>
@@ -1684,8 +1684,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1744,9 +1744,7 @@
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="14" t="s">
         <v>233</v>
       </c>
@@ -1769,9 +1767,7 @@
       <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="14" t="s">
         <v>233</v>
       </c>
@@ -1794,9 +1790,6 @@
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="14" t="s">
         <v>233</v>
       </c>
@@ -1818,9 +1811,6 @@
       <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" s="14" t="s">
         <v>233</v>
       </c>
@@ -1842,9 +1832,6 @@
       <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" s="14" t="s">
         <v>233</v>
       </c>
@@ -1867,9 +1854,6 @@
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G7" s="14" t="s">
         <v>233</v>
       </c>
@@ -1891,9 +1875,6 @@
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G8" s="14" t="s">
         <v>233</v>
       </c>
@@ -1915,9 +1896,6 @@
       <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" s="14" t="s">
         <v>233</v>
       </c>
@@ -1939,9 +1917,6 @@
       <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G10" s="14" t="s">
         <v>233</v>
       </c>
@@ -1963,9 +1938,6 @@
       <c r="E11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G11" s="14" t="s">
         <v>233</v>
       </c>
@@ -1987,9 +1959,6 @@
       <c r="E12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G12" s="14" t="s">
         <v>233</v>
       </c>
@@ -2011,9 +1980,6 @@
       <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G13" s="14" t="s">
         <v>233</v>
       </c>
@@ -2035,9 +2001,6 @@
       <c r="E14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G14" s="14" t="s">
         <v>233</v>
       </c>
@@ -2059,9 +2022,6 @@
       <c r="E15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G15" s="14" t="s">
         <v>233</v>
       </c>
@@ -2083,9 +2043,6 @@
       <c r="E16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G16" s="14" t="s">
         <v>233</v>
       </c>
@@ -2107,9 +2064,6 @@
       <c r="E17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G17" s="14" t="s">
         <v>233</v>
       </c>
@@ -2130,9 +2084,6 @@
       </c>
       <c r="E18" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>233</v>
@@ -2171,7 +2122,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C18"/>
     </sheetView>
